--- a/output/fit_clients/fit_round_118.xlsx
+++ b/output/fit_clients/fit_round_118.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2292621733.033783</v>
+        <v>2303519481.864927</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1093353962100564</v>
+        <v>0.08917808367028893</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03541591248161629</v>
+        <v>0.02836128573186562</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1146310901.437759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2308100340.316562</v>
+        <v>2566691362.909222</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11601821909731</v>
+        <v>0.1495335412108239</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04667541228270176</v>
+        <v>0.05036726232971633</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1154050257.873948</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4339122642.887598</v>
+        <v>4678678702.282535</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1651674936634573</v>
+        <v>0.1225559059979473</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02864436003062747</v>
+        <v>0.0335376804541133</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2169561359.589047</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2796431671.963196</v>
+        <v>3188653903.100208</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1093940071438157</v>
+        <v>0.07368188054473446</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03380884387450696</v>
+        <v>0.03071998656176686</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1398215919.26066</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2224420573.655867</v>
+        <v>1816072747.893972</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1251379868814759</v>
+        <v>0.0994406053518192</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04423323029292493</v>
+        <v>0.03784010479714614</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1112210292.078369</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2272140331.636709</v>
+        <v>1930615274.475631</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07608922562320261</v>
+        <v>0.06209851847869403</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03956043019829065</v>
+        <v>0.03443915490380926</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1136070200.768494</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3169300735.380535</v>
+        <v>3165592811.605158</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1753565511849076</v>
+        <v>0.2152676191102901</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02988839399617975</v>
+        <v>0.02269817907325634</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>38</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1584650442.457473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2103793367.345753</v>
+        <v>2013266613.129105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1582889895666867</v>
+        <v>0.1760914328427922</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02586705226065234</v>
+        <v>0.02320129364221267</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1051896695.826367</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4573982069.086121</v>
+        <v>5448081322.058672</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2137270174437231</v>
+        <v>0.1810010005720904</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04105316287822524</v>
+        <v>0.03757487377985358</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>50</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2286991100.805635</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2724966590.145908</v>
+        <v>4046762590.654657</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1266960332445495</v>
+        <v>0.158066202267175</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04308279965950832</v>
+        <v>0.04354055672324746</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>49</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1362483218.768901</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2958425305.801834</v>
+        <v>2171350519.521412</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1649973058978121</v>
+        <v>0.1610166234006537</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04787265511296467</v>
+        <v>0.04884331893083391</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>42</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1479212667.058568</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3288266104.966634</v>
+        <v>3486558584.581278</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06707422171792787</v>
+        <v>0.07181585909437606</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02192730071390824</v>
+        <v>0.01950126831291166</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>40</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1644133143.503942</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2907097858.259495</v>
+        <v>2552427366.367368</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1851331631566467</v>
+        <v>0.131245147659156</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0363219775853835</v>
+        <v>0.03579982568309521</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>38</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1453548970.239333</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1783564586.499692</v>
+        <v>1443435166.446111</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09990631445744648</v>
+        <v>0.09039626769453631</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0357266029722302</v>
+        <v>0.03357768651496425</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>891782442.9826864</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2449359509.812044</v>
+        <v>2430120834.57636</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07397324605797212</v>
+        <v>0.09178816989324166</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05162778735290332</v>
+        <v>0.04558208749309838</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>18</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1224679790.191956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4269857015.783233</v>
+        <v>3543108176.63311</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1106661790824193</v>
+        <v>0.1500640719948765</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03767118793995673</v>
+        <v>0.04018562890932748</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>34</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2134928529.089081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3788116978.72183</v>
+        <v>3642883730.410407</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1467142722773276</v>
+        <v>0.1477840907461383</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0285372043418196</v>
+        <v>0.02832413931259315</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>39</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1894058462.557979</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1040988952.963863</v>
+        <v>1290163973.090087</v>
       </c>
       <c r="F19" t="n">
-        <v>0.116146678616754</v>
+        <v>0.188988516679842</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0220527254652911</v>
+        <v>0.01801669626132348</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>520494515.6314888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2717413480.956488</v>
+        <v>2579308382.982862</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1494984027908882</v>
+        <v>0.156416242836787</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0206875088639598</v>
+        <v>0.02787226273900438</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1358706690.361204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2284900603.472013</v>
+        <v>2541680542.755583</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09905008616562176</v>
+        <v>0.08745198466103048</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03295407150819465</v>
+        <v>0.03215310027623785</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1142450310.354496</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3699480168.012919</v>
+        <v>2644636391.469857</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1141697965141438</v>
+        <v>0.1051485265408312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03451655621844395</v>
+        <v>0.03803476517079972</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>32</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1849740103.593697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1101115732.423517</v>
+        <v>1306439246.006512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1131918252638185</v>
+        <v>0.1624046397485424</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05190034654578989</v>
+        <v>0.04221583166198263</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>550557919.2982123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3548132467.906441</v>
+        <v>3353424156.450047</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1264465967347667</v>
+        <v>0.1208335899571923</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03294771645480885</v>
+        <v>0.02339074556681427</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>34</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1774066232.272315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1412885367.555558</v>
+        <v>1436889017.024036</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08718346544699529</v>
+        <v>0.07390989235383004</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02839654166031884</v>
+        <v>0.02865240352350549</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>706442652.7155641</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1270279087.653305</v>
+        <v>1373055550.312315</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08474730649322197</v>
+        <v>0.113796607245249</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03816431041480547</v>
+        <v>0.03073763433118034</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>635139581.9955348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3078799126.275961</v>
+        <v>4521612852.800574</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1109364864101347</v>
+        <v>0.1013893916560748</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01981228300697841</v>
+        <v>0.02444533385026148</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1539399619.017346</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2436736936.20716</v>
+        <v>3280372529.3402</v>
       </c>
       <c r="F28" t="n">
-        <v>0.14013495346485</v>
+        <v>0.1397180681700946</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04611454791260067</v>
+        <v>0.03872998939817883</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>38</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1218368430.372605</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4175841370.723073</v>
+        <v>4072881202.496992</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09758943319629211</v>
+        <v>0.1189640381082913</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03452500867784787</v>
+        <v>0.02870448115649334</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>54</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2087920689.944932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2135768432.703666</v>
+        <v>2110384595.462483</v>
       </c>
       <c r="F30" t="n">
-        <v>0.112725313258128</v>
+        <v>0.1096014749490175</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03618316141505155</v>
+        <v>0.03635799367447314</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1067884269.205389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1175867192.388454</v>
+        <v>911639144.6497033</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09790179243426403</v>
+        <v>0.08453020879262707</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0486577712402905</v>
+        <v>0.03931427205795343</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>587933553.2884731</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1337054557.719944</v>
+        <v>1726411845.317246</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09594941616040416</v>
+        <v>0.07521450538904752</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02655827453258464</v>
+        <v>0.02802977701868021</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>668527313.4082364</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2887871370.05573</v>
+        <v>3079775832.549842</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1385360941682939</v>
+        <v>0.1311523590422944</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03706295650390014</v>
+        <v>0.05306851204284643</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>33</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1443935690.136917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1401917248.793535</v>
+        <v>1365555369.986197</v>
       </c>
       <c r="F34" t="n">
-        <v>0.106788097155609</v>
+        <v>0.1044198320761154</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02455002037489037</v>
+        <v>0.01993417886880768</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>700958596.2540274</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>945389111.5663929</v>
+        <v>1213120717.920047</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1040738888350974</v>
+        <v>0.07288303748653102</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04109973136458937</v>
+        <v>0.04454539473717003</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>472694586.2862012</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3139758235.124999</v>
+        <v>3133739555.810455</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1794773411013144</v>
+        <v>0.1330679934952947</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01752603717283513</v>
+        <v>0.02796627882775133</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1569879088.220325</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2663393698.305925</v>
+        <v>2392115842.276842</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09741911647096835</v>
+        <v>0.09835733323349095</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03381715717701268</v>
+        <v>0.02599320774860372</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>31</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1331696967.657136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1761862315.216039</v>
+        <v>1495093798.141809</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08735061333343576</v>
+        <v>0.074483797623057</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03797898621492224</v>
+        <v>0.03946824191915799</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>880931169.8201987</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1835527693.652512</v>
+        <v>2158046173.633959</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1325421947764817</v>
+        <v>0.1366658285529181</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02530683715083846</v>
+        <v>0.03307158393787718</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>917763866.2699811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1765709095.5317</v>
+        <v>1220914523.446087</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1083717599936</v>
+        <v>0.1355588564023031</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06004354906787518</v>
+        <v>0.05807240216464984</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>882854447.3870196</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2643825225.805801</v>
+        <v>2698685401.939521</v>
       </c>
       <c r="F41" t="n">
-        <v>0.154587766226896</v>
+        <v>0.1388245782361483</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04121863749557546</v>
+        <v>0.04550313015628047</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>29</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1321912624.022545</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3736144512.431187</v>
+        <v>4294545294.422801</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08584235300481115</v>
+        <v>0.09069993055587135</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03771149745416554</v>
+        <v>0.03574445101933067</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1868072267.268245</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2041050373.54312</v>
+        <v>2515799250.792645</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1342619797889095</v>
+        <v>0.1673700548212703</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02092800141591091</v>
+        <v>0.01941216959187407</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>38</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1020525281.536197</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2238720780.505952</v>
+        <v>1941688379.159348</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06607388877912984</v>
+        <v>0.08201377824120128</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02876969882433791</v>
+        <v>0.0328241816236132</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1119360544.169537</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1956684438.970972</v>
+        <v>1532422411.875721</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1316833859767177</v>
+        <v>0.1188759297766069</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04483264296258919</v>
+        <v>0.0432371767526921</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>978342205.9379643</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5518176304.667727</v>
+        <v>5692888644.457587</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1416770178386514</v>
+        <v>0.1218496504867836</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0592424865907546</v>
+        <v>0.04806646394009677</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>42</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2759088208.733117</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4570008769.847617</v>
+        <v>5096245405.420588</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1369280436770627</v>
+        <v>0.1954874779731463</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04869831009895795</v>
+        <v>0.05843311257503249</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>32</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2285004416.306235</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2894184920.855598</v>
+        <v>3821948145.795454</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08871754150107514</v>
+        <v>0.07448288330190526</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02584052086873985</v>
+        <v>0.0304810505806036</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>40</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1447092558.979354</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1840847246.008754</v>
+        <v>1340667097.762569</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1279781348147918</v>
+        <v>0.1720055067190051</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03330623818706601</v>
+        <v>0.03120820254221373</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>920423601.958268</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3859167122.867546</v>
+        <v>3823497004.174652</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1148001208203851</v>
+        <v>0.1593360820120331</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03910570553175838</v>
+        <v>0.03700500980401658</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>40</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1929583560.077707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1396002595.164307</v>
+        <v>1412483978.533177</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1686380754355598</v>
+        <v>0.1830713162413736</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04996232330264207</v>
+        <v>0.0359308026462445</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>698001317.3288728</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4532531419.925359</v>
+        <v>4331569333.77043</v>
       </c>
       <c r="F52" t="n">
-        <v>0.106786371922611</v>
+        <v>0.1217500303738883</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05788797501292903</v>
+        <v>0.04683721003505096</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>49</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2266265735.045971</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2878170719.552515</v>
+        <v>3174322648.744088</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1957612630907498</v>
+        <v>0.186707789786857</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03528990400826918</v>
+        <v>0.02801679999276863</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>34</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1439085400.53861</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3071452918.875457</v>
+        <v>3815884332.531814</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1346433829032544</v>
+        <v>0.1264943582805237</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03370058747875706</v>
+        <v>0.04247896546270717</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>38</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1535726450.549567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4307105147.910604</v>
+        <v>4892588007.441094</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1831569981970664</v>
+        <v>0.1628098348710248</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02902330976225179</v>
+        <v>0.02362943280978655</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2153552562.353388</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1871648329.585571</v>
+        <v>1800874356.774021</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1499970266770533</v>
+        <v>0.1109385169095536</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04032063966725086</v>
+        <v>0.03526810080467735</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>935824151.9285384</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3987750848.63881</v>
+        <v>3174661536.691864</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1551739045591859</v>
+        <v>0.1506335168552462</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02342074572022316</v>
+        <v>0.02509458812901895</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>37</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1993875511.602895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1375096455.730113</v>
+        <v>1775069799.700438</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1804499061396647</v>
+        <v>0.146751290535737</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02476258356549265</v>
+        <v>0.02549740394292336</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>687548270.338196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5129913208.480627</v>
+        <v>3590567255.705735</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08247933439893801</v>
+        <v>0.09100819518225048</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04044350896424495</v>
+        <v>0.03943727794126096</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2564956525.61383</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2359938050.721948</v>
+        <v>3135025892.516901</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1895112414975924</v>
+        <v>0.1269112901191862</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0306241174144084</v>
+        <v>0.03104385641314386</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>37</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1179969028.534708</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2243393892.550186</v>
+        <v>2880783743.799903</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1146451027567049</v>
+        <v>0.1538236560062311</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03053956301496824</v>
+        <v>0.0204375199470264</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>42</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1121696998.034448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1295737511.799921</v>
+        <v>1974220444.651074</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1447793553070914</v>
+        <v>0.134170653059456</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04642647940740786</v>
+        <v>0.04877140721459892</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>647868708.2677571</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4439529850.68586</v>
+        <v>3456517648.290874</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1054700075065961</v>
+        <v>0.08926233461225179</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0442691087296378</v>
+        <v>0.02889673875838655</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>34</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2219764968.060353</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4867750501.203813</v>
+        <v>4885613371.550565</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1288672036124874</v>
+        <v>0.1714267831148754</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03423937740628843</v>
+        <v>0.02970069382589992</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>37</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2433875347.431421</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4759094596.243433</v>
+        <v>4904972043.036122</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1326862587043455</v>
+        <v>0.1650533545770993</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02199445332206749</v>
+        <v>0.02721163314426039</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>43</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2379547271.359262</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4238016601.801798</v>
+        <v>4414240039.871819</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1506909551186449</v>
+        <v>0.1210302680431213</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03748702113467884</v>
+        <v>0.03698564376098067</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>34</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2119008287.162647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2663672388.616325</v>
+        <v>2706159560.318516</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06394556004569288</v>
+        <v>0.0670384864171004</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03249266557080106</v>
+        <v>0.03225831510202781</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>38</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1331836241.018376</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5707643929.130118</v>
+        <v>4092964702.089184</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1506535160159061</v>
+        <v>0.1523906396662437</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03768658551729372</v>
+        <v>0.04122444909419178</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>37</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2853822063.768655</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1985646792.265426</v>
+        <v>1720253837.429111</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1532968406517422</v>
+        <v>0.1748889706529305</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05995442091284887</v>
+        <v>0.05157892935906217</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>992823399.1768486</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2516480733.200242</v>
+        <v>3183418640.745837</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07884298301245528</v>
+        <v>0.07955592403277857</v>
       </c>
       <c r="G70" t="n">
-        <v>0.032526091420171</v>
+        <v>0.03381293125939484</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>34</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1258240312.086995</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3676986261.088894</v>
+        <v>4187751560.731587</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1814424888410779</v>
+        <v>0.1270870919023526</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02887512003549891</v>
+        <v>0.03274302553619515</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>43</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1838493137.446954</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1739539725.422892</v>
+        <v>2083179258.930167</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09410849600778157</v>
+        <v>0.08591973471084999</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03574794468862058</v>
+        <v>0.04751672707394345</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>869769851.0285351</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2377508344.803182</v>
+        <v>2526101022.110565</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1067778043530591</v>
+        <v>0.09939271802651775</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04448458575340451</v>
+        <v>0.03217040533029916</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>45</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1188754225.319426</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2654898437.791734</v>
+        <v>3559728450.573987</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1767525378735515</v>
+        <v>0.1260460464420544</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03231750032975769</v>
+        <v>0.02670803057861164</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>40</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1327449314.086694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2308115448.251277</v>
+        <v>2434125857.752057</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1621057695278552</v>
+        <v>0.1182143664912094</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03178618531850608</v>
+        <v>0.03472265627404596</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1154057659.331828</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4390194319.122684</v>
+        <v>4120517260.731635</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09740960519628633</v>
+        <v>0.09413811146656638</v>
       </c>
       <c r="G76" t="n">
-        <v>0.025879397864357</v>
+        <v>0.02423615629328103</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>26</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2195097160.61102</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1633582869.690776</v>
+        <v>2105991961.64562</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1762744664588047</v>
+        <v>0.1464242574860357</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02781522073459657</v>
+        <v>0.02050825555619283</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>816791442.2358075</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4731704568.049675</v>
+        <v>3786448683.757624</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0840475887922973</v>
+        <v>0.1293496184632497</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04805972533954694</v>
+        <v>0.04855336093848249</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>41</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2365852197.302714</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1748982182.021569</v>
+        <v>1905236649.377351</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1592474193818346</v>
+        <v>0.1530924928708655</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03566053061182976</v>
+        <v>0.0370780207977463</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>874491168.7257988</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4300126944.081302</v>
+        <v>4255399262.227977</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08249236181577911</v>
+        <v>0.08966508822722342</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03750202258459507</v>
+        <v>0.03484217282907421</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>25</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2150063486.387453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3202483026.70854</v>
+        <v>3162570787.496616</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1049175931044598</v>
+        <v>0.09698343643600059</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02607126759236999</v>
+        <v>0.0306477438106274</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1601241446.893785</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4883996707.947035</v>
+        <v>3987030426.278062</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1586150143442496</v>
+        <v>0.1582684131215877</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02477297984525334</v>
+        <v>0.01940536520881624</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>45</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2441998344.352239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2011799524.281293</v>
+        <v>1632268049.248803</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1585936742176682</v>
+        <v>0.1475986670279506</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02918576935685071</v>
+        <v>0.03877539371088474</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1005899748.866399</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1885199257.931179</v>
+        <v>2301020790.426646</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1062459017909792</v>
+        <v>0.07432735142262389</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0438861383225766</v>
+        <v>0.04488901068444897</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>942599650.7337618</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3353377187.748718</v>
+        <v>3436188550.680429</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1639995246580863</v>
+        <v>0.1588875361820293</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0391261612426298</v>
+        <v>0.03972302232634465</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>45</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1676688692.97241</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2756109345.058092</v>
+        <v>2650982347.466423</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1269150918829525</v>
+        <v>0.1167893480603134</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02532474364970968</v>
+        <v>0.02298310646367319</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1378054805.239713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>933090127.4551183</v>
+        <v>1165688623.078373</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1872342398867632</v>
+        <v>0.1178812289555573</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03720144556941737</v>
+        <v>0.0295715929315845</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>466545050.8263419</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3605750793.266172</v>
+        <v>2387977443.790926</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1392020454680139</v>
+        <v>0.1474681880746526</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03438529092095863</v>
+        <v>0.03268841801014001</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>47</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1802875486.874479</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3222447617.527587</v>
+        <v>3332456477.270429</v>
       </c>
       <c r="F89" t="n">
-        <v>0.147053199510024</v>
+        <v>0.1555173661533899</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0256611420467335</v>
+        <v>0.02992243649743972</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>41</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1611223830.508251</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2041468298.654586</v>
+        <v>1778452449.023956</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08653314459588038</v>
+        <v>0.1139484049412302</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03454220338420569</v>
+        <v>0.04831379269665282</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1020734227.141518</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2081998313.585391</v>
+        <v>1303334732.944867</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1773458859229046</v>
+        <v>0.1599374039164951</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06095113921668567</v>
+        <v>0.0439315060408746</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1040999118.073821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2143045215.224386</v>
+        <v>2293824827.533526</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1077510692904557</v>
+        <v>0.07085099542031759</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03011973075912919</v>
+        <v>0.03657545573310851</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>27</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1071522564.558161</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4964882924.682297</v>
+        <v>3403199638.468369</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1201628164716684</v>
+        <v>0.1368993437099329</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03489930369478871</v>
+        <v>0.04818037593466864</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>36</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2482441400.53518</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2060097778.111052</v>
+        <v>2490041691.335675</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1196506980065807</v>
+        <v>0.1621617772701701</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03516139196037585</v>
+        <v>0.04153838820654154</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1030048895.14502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2487225541.57352</v>
+        <v>1973304033.023633</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1103643768393568</v>
+        <v>0.1296227582559671</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03398637646178886</v>
+        <v>0.0467298018932767</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>27</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1243612807.759137</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1955614137.631409</v>
+        <v>1777959213.359602</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1128614320571535</v>
+        <v>0.1136096317689615</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04440594291684025</v>
+        <v>0.02986621333400632</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>977807060.4864916</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3830506609.987066</v>
+        <v>5181270425.402675</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1698574103837899</v>
+        <v>0.1165655154756856</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02541239087519582</v>
+        <v>0.02038901828873932</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>38</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1915253347.692997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3479190740.050704</v>
+        <v>2774707020.986783</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1140842784918872</v>
+        <v>0.09684582340056559</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02025423274163685</v>
+        <v>0.03055009083665576</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>31</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1739595387.160012</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2288493361.720153</v>
+        <v>2819737067.741406</v>
       </c>
       <c r="F99" t="n">
-        <v>0.146663990636641</v>
+        <v>0.134204636091426</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0249917480715779</v>
+        <v>0.02920139006807081</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1144246615.180958</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3721371567.193926</v>
+        <v>3648287330.346021</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1318611700197587</v>
+        <v>0.1664907354532627</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0234932477595335</v>
+        <v>0.02544291301595288</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>36</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1860685831.966387</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2498624109.718941</v>
+        <v>3603107642.252531</v>
       </c>
       <c r="F101" t="n">
-        <v>0.155817061828694</v>
+        <v>0.1968488982981075</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05450994831682873</v>
+        <v>0.04944646536277306</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>49</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1249312077.604681</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_118.xlsx
+++ b/output/fit_clients/fit_round_118.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2303519481.864927</v>
+        <v>1947224556.203625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08917808367028893</v>
+        <v>0.09389957472779882</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02836128573186562</v>
+        <v>0.04217948450094817</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2566691362.909222</v>
+        <v>1720124465.631071</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1495335412108239</v>
+        <v>0.123750358380918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05036726232971633</v>
+        <v>0.03741945893014807</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4678678702.282535</v>
+        <v>3430648239.022164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1225559059979473</v>
+        <v>0.1543360579620195</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0335376804541133</v>
+        <v>0.02565181625701787</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3188653903.100208</v>
+        <v>3289755016.885217</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07368188054473446</v>
+        <v>0.08542708297771795</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03071998656176686</v>
+        <v>0.0454278177504464</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1816072747.893972</v>
+        <v>2042503109.289944</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0994406053518192</v>
+        <v>0.1035865553514641</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03784010479714614</v>
+        <v>0.04792616088667352</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1930615274.475631</v>
+        <v>2385512920.876521</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06209851847869403</v>
+        <v>0.08887353501412523</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03443915490380926</v>
+        <v>0.0491200935447356</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3165592811.605158</v>
+        <v>3622787639.756534</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2152676191102901</v>
+        <v>0.2102671889591343</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02269817907325634</v>
+        <v>0.02836446136167808</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2013266613.129105</v>
+        <v>1482048084.359176</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1760914328427922</v>
+        <v>0.1484270910713625</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02320129364221267</v>
+        <v>0.03284208756499366</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5448081322.058672</v>
+        <v>4012051572.274112</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1810010005720904</v>
+        <v>0.2150613398929322</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03757487377985358</v>
+        <v>0.05099915192615194</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4046762590.654657</v>
+        <v>2922848996.872676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.158066202267175</v>
+        <v>0.1849574027555929</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04354055672324746</v>
+        <v>0.03481118653723719</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2171350519.521412</v>
+        <v>2443326056.505183</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1610166234006537</v>
+        <v>0.1322216049339896</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04884331893083391</v>
+        <v>0.04471522453495824</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3486558584.581278</v>
+        <v>3834288568.452094</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07181585909437606</v>
+        <v>0.08364966644865029</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01950126831291166</v>
+        <v>0.02111195693868085</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2552427366.367368</v>
+        <v>3437387410.412522</v>
       </c>
       <c r="F14" t="n">
-        <v>0.131245147659156</v>
+        <v>0.1194934895537429</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03579982568309521</v>
+        <v>0.02899346840297206</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1443435166.446111</v>
+        <v>1126478916.686577</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09039626769453631</v>
+        <v>0.08203490470744663</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03357768651496425</v>
+        <v>0.03993785510457699</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2430120834.57636</v>
+        <v>1802336338.033559</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09178816989324166</v>
+        <v>0.07762791609620183</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04558208749309838</v>
+        <v>0.04338474281246188</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3543108176.63311</v>
+        <v>4267396242.871068</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1500640719948765</v>
+        <v>0.1126844009836763</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04018562890932748</v>
+        <v>0.03222975957651988</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3642883730.410407</v>
+        <v>3841838933.765595</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1477840907461383</v>
+        <v>0.1349428146631614</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02832413931259315</v>
+        <v>0.02982046018418502</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1290163973.090087</v>
+        <v>1265341600.273058</v>
       </c>
       <c r="F19" t="n">
-        <v>0.188988516679842</v>
+        <v>0.1636315860343311</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01801669626132348</v>
+        <v>0.0266228901414134</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2579308382.982862</v>
+        <v>1984433558.95066</v>
       </c>
       <c r="F20" t="n">
-        <v>0.156416242836787</v>
+        <v>0.1058358687716467</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02787226273900438</v>
+        <v>0.02239427130126403</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2541680542.755583</v>
+        <v>2072204815.672112</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08745198466103048</v>
+        <v>0.072406652346342</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03215310027623785</v>
+        <v>0.03883762500155747</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2644636391.469857</v>
+        <v>3682140856.712066</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1051485265408312</v>
+        <v>0.09280301365569514</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03803476517079972</v>
+        <v>0.05566778667518354</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1306439246.006512</v>
+        <v>1354420018.626393</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1624046397485424</v>
+        <v>0.1377166372323685</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04221583166198263</v>
+        <v>0.03981706810640356</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3353424156.450047</v>
+        <v>2848320879.110778</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1208335899571923</v>
+        <v>0.1366722940759164</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02339074556681427</v>
+        <v>0.03607379421424355</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1436889017.024036</v>
+        <v>1305897295.852744</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07390989235383004</v>
+        <v>0.08745907729858657</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02865240352350549</v>
+        <v>0.02743902210827255</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1373055550.312315</v>
+        <v>889522447.385366</v>
       </c>
       <c r="F26" t="n">
-        <v>0.113796607245249</v>
+        <v>0.1202357992344308</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03073763433118034</v>
+        <v>0.02632502931209621</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4521612852.800574</v>
+        <v>3412925803.120446</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1013893916560748</v>
+        <v>0.1071557382201103</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02444533385026148</v>
+        <v>0.02471241008227133</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3280372529.3402</v>
+        <v>3698517024.612421</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1397180681700946</v>
+        <v>0.1125571431764918</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03872998939817883</v>
+        <v>0.04437212168112945</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4072881202.496992</v>
+        <v>4217830844.84229</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1189640381082913</v>
+        <v>0.1477887846772093</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02870448115649334</v>
+        <v>0.03977199350657146</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2110384595.462483</v>
+        <v>1892630189.849734</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1096014749490175</v>
+        <v>0.1318092918698433</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03635799367447314</v>
+        <v>0.03403049862025003</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>911639144.6497033</v>
+        <v>1247195712.168157</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08453020879262707</v>
+        <v>0.08658995189788772</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03931427205795343</v>
+        <v>0.03268326695688936</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1726411845.317246</v>
+        <v>1827539258.770536</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07521450538904752</v>
+        <v>0.09981039230621225</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02802977701868021</v>
+        <v>0.03113754025376199</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3079775832.549842</v>
+        <v>2270793713.667144</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1311523590422944</v>
+        <v>0.2082780962061486</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05306851204284643</v>
+        <v>0.04428662523569141</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1365555369.986197</v>
+        <v>1023837199.134627</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1044198320761154</v>
+        <v>0.1081514734932282</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01993417886880768</v>
+        <v>0.02378537194715311</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1213120717.920047</v>
+        <v>896695347.3651798</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07288303748653102</v>
+        <v>0.1147872160506689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04454539473717003</v>
+        <v>0.04198062441211668</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3133739555.810455</v>
+        <v>2655782442.123362</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1330679934952947</v>
+        <v>0.1319230377401809</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02796627882775133</v>
+        <v>0.02011797661910897</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2392115842.276842</v>
+        <v>2571866566.688723</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09835733323349095</v>
+        <v>0.1026839454211487</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02599320774860372</v>
+        <v>0.03618715883108774</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1495093798.141809</v>
+        <v>1324522856.668334</v>
       </c>
       <c r="F38" t="n">
-        <v>0.074483797623057</v>
+        <v>0.07683399955545787</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03946824191915799</v>
+        <v>0.02801150879090403</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2158046173.633959</v>
+        <v>2195073937.645976</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1366658285529181</v>
+        <v>0.1523159151096602</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03307158393787718</v>
+        <v>0.02821751776449277</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1220914523.446087</v>
+        <v>1776174311.496197</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1355588564023031</v>
+        <v>0.1478218431029669</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05807240216464984</v>
+        <v>0.03811197825548143</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2698685401.939521</v>
+        <v>2129380985.86719</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1388245782361483</v>
+        <v>0.1407465336817526</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04550313015628047</v>
+        <v>0.0284882201468537</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4294545294.422801</v>
+        <v>2731874100.384755</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09069993055587135</v>
+        <v>0.1033065436010469</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03574445101933067</v>
+        <v>0.0414098680286499</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2515799250.792645</v>
+        <v>2237300933.505045</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1673700548212703</v>
+        <v>0.197083471171653</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01941216959187407</v>
+        <v>0.02474613229406053</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1941688379.159348</v>
+        <v>2270566098.519476</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08201377824120128</v>
+        <v>0.07257722259023149</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0328241816236132</v>
+        <v>0.03087350188889506</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1532422411.875721</v>
+        <v>2251638088.978343</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1188759297766069</v>
+        <v>0.1874254478476912</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0432371767526921</v>
+        <v>0.03532287600081239</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5692888644.457587</v>
+        <v>5539264846.918118</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1218496504867836</v>
+        <v>0.1365554513066251</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04806646394009677</v>
+        <v>0.05330170211611703</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5096245405.420588</v>
+        <v>5113849434.357146</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1954874779731463</v>
+        <v>0.1716139246680838</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05843311257503249</v>
+        <v>0.04613219471191209</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3821948145.795454</v>
+        <v>4494218030.344247</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07448288330190526</v>
+        <v>0.08250499846356996</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0304810505806036</v>
+        <v>0.03358279555658236</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1340667097.762569</v>
+        <v>1624880351.608013</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1720055067190051</v>
+        <v>0.1412095094127193</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03120820254221373</v>
+        <v>0.03424610125363951</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3823497004.174652</v>
+        <v>4044103891.34539</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1593360820120331</v>
+        <v>0.1768849950664896</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03700500980401658</v>
+        <v>0.04001308784573895</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1412483978.533177</v>
+        <v>1093688905.484349</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1830713162413736</v>
+        <v>0.1786802742646931</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0359308026462445</v>
+        <v>0.03417098877283614</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4331569333.77043</v>
+        <v>4453837104.697277</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1217500303738883</v>
+        <v>0.1068020049940513</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04683721003505096</v>
+        <v>0.0575857824431187</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3174322648.744088</v>
+        <v>2979117017.61606</v>
       </c>
       <c r="F53" t="n">
-        <v>0.186707789786857</v>
+        <v>0.1390901268018626</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02801679999276863</v>
+        <v>0.02639468527525474</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3815884332.531814</v>
+        <v>4389185278.480295</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1264943582805237</v>
+        <v>0.1358947774936164</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04247896546270717</v>
+        <v>0.04392893697861907</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4892588007.441094</v>
+        <v>4507596249.926975</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1628098348710248</v>
+        <v>0.2205343613740348</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02362943280978655</v>
+        <v>0.02782717925596572</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1800874356.774021</v>
+        <v>1585790649.965562</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1109385169095536</v>
+        <v>0.161700650029127</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03526810080467735</v>
+        <v>0.04128773753999752</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3174661536.691864</v>
+        <v>2998883276.116407</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1506335168552462</v>
+        <v>0.1195382728347053</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02509458812901895</v>
+        <v>0.02667112196176222</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1775069799.700438</v>
+        <v>1671215094.773375</v>
       </c>
       <c r="F58" t="n">
-        <v>0.146751290535737</v>
+        <v>0.1950917610365538</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02549740394292336</v>
+        <v>0.02930949577064909</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3590567255.705735</v>
+        <v>4231733688.850413</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09100819518225048</v>
+        <v>0.09791467717445927</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03943727794126096</v>
+        <v>0.04345640167447701</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3135025892.516901</v>
+        <v>2554290726.595839</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1269112901191862</v>
+        <v>0.1426340775232941</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03104385641314386</v>
+        <v>0.02120217600447467</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2880783743.799903</v>
+        <v>2880738191.000935</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1538236560062311</v>
+        <v>0.1663111175506828</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0204375199470264</v>
+        <v>0.0284279213091319</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1974220444.651074</v>
+        <v>1631008347.44739</v>
       </c>
       <c r="F62" t="n">
-        <v>0.134170653059456</v>
+        <v>0.1770949250222309</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04877140721459892</v>
+        <v>0.03048721139979341</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3456517648.290874</v>
+        <v>4064779754.758499</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08926233461225179</v>
+        <v>0.09651075033779838</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02889673875838655</v>
+        <v>0.0394265138268893</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4885613371.550565</v>
+        <v>3771764103.58012</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1714267831148754</v>
+        <v>0.1157917550841819</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02970069382589992</v>
+        <v>0.02783594476476941</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4904972043.036122</v>
+        <v>3961138133.347319</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1650533545770993</v>
+        <v>0.1366165179679239</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02721163314426039</v>
+        <v>0.02708242453174922</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4414240039.871819</v>
+        <v>4838298675.972306</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1210302680431213</v>
+        <v>0.1116606030214059</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03698564376098067</v>
+        <v>0.03262164841602665</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2706159560.318516</v>
+        <v>2692645485.571659</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0670384864171004</v>
+        <v>0.06696604097650713</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03225831510202781</v>
+        <v>0.03749997883641356</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4092964702.089184</v>
+        <v>5608456353.832154</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1523906396662437</v>
+        <v>0.1288006284628913</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04122444909419178</v>
+        <v>0.03316194505884311</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1720253837.429111</v>
+        <v>1832008584.464559</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1748889706529305</v>
+        <v>0.1683034902489729</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05157892935906217</v>
+        <v>0.03639495580282393</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3183418640.745837</v>
+        <v>3316474091.416435</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07955592403277857</v>
+        <v>0.1030164312638618</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03381293125939484</v>
+        <v>0.0335356954539958</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4187751560.731587</v>
+        <v>5190686329.224629</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1270870919023526</v>
+        <v>0.1675695024740281</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03274302553619515</v>
+        <v>0.02326027247754218</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2083179258.930167</v>
+        <v>2087034955.84332</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08591973471084999</v>
+        <v>0.06833545902628645</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04751672707394345</v>
+        <v>0.04198437956149232</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2526101022.110565</v>
+        <v>2370150044.53334</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09939271802651775</v>
+        <v>0.1013742983311704</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03217040533029916</v>
+        <v>0.04147016565586362</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3559728450.573987</v>
+        <v>2503956451.754799</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1260460464420544</v>
+        <v>0.1474158859379127</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02670803057861164</v>
+        <v>0.03355884626159213</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2434125857.752057</v>
+        <v>2274510432.632692</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1182143664912094</v>
+        <v>0.1566097788331715</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03472265627404596</v>
+        <v>0.0342125314660913</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4120517260.731635</v>
+        <v>3710772080.036592</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09413811146656638</v>
+        <v>0.09366363327997834</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02423615629328103</v>
+        <v>0.03393043562021449</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2105991961.64562</v>
+        <v>2297064181.091951</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1464242574860357</v>
+        <v>0.144943764979612</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02050825555619283</v>
+        <v>0.02420734196747618</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3786448683.757624</v>
+        <v>2989734026.586467</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1293496184632497</v>
+        <v>0.1041144077918431</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04855336093848249</v>
+        <v>0.03798808157705794</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1905236649.377351</v>
+        <v>1926620141.110046</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1530924928708655</v>
+        <v>0.110455557853177</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0370780207977463</v>
+        <v>0.03709667557622481</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4255399262.227977</v>
+        <v>3710530975.547271</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08966508822722342</v>
+        <v>0.09333653238716189</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03484217282907421</v>
+        <v>0.03589728829220452</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3162570787.496616</v>
+        <v>4927021873.767303</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09698343643600059</v>
+        <v>0.1139799496197647</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0306477438106274</v>
+        <v>0.02890967050827321</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3987030426.278062</v>
+        <v>5558276431.983706</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1582684131215877</v>
+        <v>0.1735507850206946</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01940536520881624</v>
+        <v>0.02717012594693801</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1632268049.248803</v>
+        <v>2228019421.186541</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1475986670279506</v>
+        <v>0.09916879528145196</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03877539371088474</v>
+        <v>0.0310534278510065</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2301020790.426646</v>
+        <v>2375350585.159382</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07432735142262389</v>
+        <v>0.09671507957950247</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04488901068444897</v>
+        <v>0.04102299980255031</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3436188550.680429</v>
+        <v>3231778341.245028</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1588875361820293</v>
+        <v>0.1817994714735633</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03972302232634465</v>
+        <v>0.03936994618376954</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2650982347.466423</v>
+        <v>2758692267.418715</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1167893480603134</v>
+        <v>0.1352521138471877</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02298310646367319</v>
+        <v>0.02760428047304507</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1165688623.078373</v>
+        <v>1130865012.562395</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1178812289555573</v>
+        <v>0.1297718217181049</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0295715929315845</v>
+        <v>0.03844145969389655</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2387977443.790926</v>
+        <v>3085045923.8295</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1474681880746526</v>
+        <v>0.178737572983252</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03268841801014001</v>
+        <v>0.02590608322619151</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3332456477.270429</v>
+        <v>2157048328.451489</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1555173661533899</v>
+        <v>0.09721230738385316</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02992243649743972</v>
+        <v>0.03396793008755029</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1778452449.023956</v>
+        <v>2014527015.958737</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1139484049412302</v>
+        <v>0.08379359750700645</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04831379269665282</v>
+        <v>0.05366127549507765</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1303334732.944867</v>
+        <v>1375702286.391039</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1599374039164951</v>
+        <v>0.1547490523155786</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0439315060408746</v>
+        <v>0.05770777739567946</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2293824827.533526</v>
+        <v>2190478132.937454</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07085099542031759</v>
+        <v>0.1013825304222898</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03657545573310851</v>
+        <v>0.03235014508676426</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3403199638.468369</v>
+        <v>3177761993.172707</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1368993437099329</v>
+        <v>0.1211458041130709</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04818037593466864</v>
+        <v>0.04889416019518277</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2490041691.335675</v>
+        <v>2032403711.198046</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1621617772701701</v>
+        <v>0.1324456127356263</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04153838820654154</v>
+        <v>0.04015188883484357</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1973304033.023633</v>
+        <v>2959642597.101293</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1296227582559671</v>
+        <v>0.1340123976368057</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0467298018932767</v>
+        <v>0.04689066246139628</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1777959213.359602</v>
+        <v>2220466539.232</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1136096317689615</v>
+        <v>0.08817006770500782</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02986621333400632</v>
+        <v>0.04447695984988011</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5181270425.402675</v>
+        <v>4301194214.241256</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1165655154756856</v>
+        <v>0.1672422032825113</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02038901828873932</v>
+        <v>0.02286959823568496</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2774707020.986783</v>
+        <v>3828360608.564632</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09684582340056559</v>
+        <v>0.1265517773770878</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03055009083665576</v>
+        <v>0.02260440415353359</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2819737067.741406</v>
+        <v>2653302570.255403</v>
       </c>
       <c r="F99" t="n">
-        <v>0.134204636091426</v>
+        <v>0.1433126990973921</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02920139006807081</v>
+        <v>0.0242487451187944</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3648287330.346021</v>
+        <v>4743341149.873407</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1664907354532627</v>
+        <v>0.1273138376590813</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02544291301595288</v>
+        <v>0.01996404932110616</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3603107642.252531</v>
+        <v>2845366402.536148</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1968488982981075</v>
+        <v>0.1649214522968813</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04944646536277306</v>
+        <v>0.05372252166258556</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_118.xlsx
+++ b/output/fit_clients/fit_round_118.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1947224556.203625</v>
+        <v>2409922019.004576</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09389957472779882</v>
+        <v>0.08931884611489735</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04217948450094817</v>
+        <v>0.04250388296982355</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1720124465.631071</v>
+        <v>1944752543.845647</v>
       </c>
       <c r="F3" t="n">
-        <v>0.123750358380918</v>
+        <v>0.1779804074625206</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03741945893014807</v>
+        <v>0.03193937443219484</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3430648239.022164</v>
+        <v>4582721360.324033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1543360579620195</v>
+        <v>0.1407318505027579</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02565181625701787</v>
+        <v>0.02358069316677804</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>71</v>
+      </c>
+      <c r="J4" t="n">
+        <v>118</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3289755016.885217</v>
+        <v>3104130401.520304</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08542708297771795</v>
+        <v>0.1003162736614078</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0454278177504464</v>
+        <v>0.05008054905747609</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>109</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2042503109.289944</v>
+        <v>2638584105.379271</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1035865553514641</v>
+        <v>0.1481924611623481</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04792616088667352</v>
+        <v>0.04232080961092458</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2385512920.876521</v>
+        <v>2581394925.523083</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08887353501412523</v>
+        <v>0.09111779875463938</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0491200935447356</v>
+        <v>0.03208966594226342</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3622787639.756534</v>
+        <v>2768009468.069163</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2102671889591343</v>
+        <v>0.1612218582515318</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02836446136167808</v>
+        <v>0.02583780056124213</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>34</v>
+      </c>
+      <c r="J8" t="n">
+        <v>117</v>
+      </c>
+      <c r="K8" t="n">
+        <v>67.91568371586592</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1482048084.359176</v>
+        <v>1946780809.768835</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1484270910713625</v>
+        <v>0.166319435757273</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03284208756499366</v>
+        <v>0.02534613101270143</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4012051572.274112</v>
+        <v>4771269142.094564</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2150613398929322</v>
+        <v>0.135674686110502</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05099915192615194</v>
+        <v>0.05375935511220731</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>107</v>
+      </c>
+      <c r="J10" t="n">
+        <v>118</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2922848996.872676</v>
+        <v>2881378057.249769</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1849574027555929</v>
+        <v>0.1318354739750254</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03481118653723719</v>
+        <v>0.04081152727613602</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>49</v>
+      </c>
+      <c r="J11" t="n">
+        <v>117</v>
+      </c>
+      <c r="K11" t="n">
+        <v>79.82942172957911</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2443326056.505183</v>
+        <v>3140166863.676457</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1322216049339896</v>
+        <v>0.1327675374407203</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04471522453495824</v>
+        <v>0.03693622621115301</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3834288568.452094</v>
+        <v>3215464616.701767</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08364966644865029</v>
+        <v>0.07577403927859641</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02111195693868085</v>
+        <v>0.02858279830792071</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>58</v>
+      </c>
+      <c r="J13" t="n">
+        <v>115</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3437387410.412522</v>
+        <v>2980946496.121393</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1194934895537429</v>
+        <v>0.1540055105559598</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02899346840297206</v>
+        <v>0.03255685198915828</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1126478916.686577</v>
+        <v>1560207809.595096</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08203490470744663</v>
+        <v>0.06621552827218563</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03993785510457699</v>
+        <v>0.03906568837164908</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1802336338.033559</v>
+        <v>2635712236.954221</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07762791609620183</v>
+        <v>0.09084980719083621</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04338474281246188</v>
+        <v>0.04871581310488911</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4267396242.871068</v>
+        <v>5261318522.030243</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1126844009836763</v>
+        <v>0.1147627677478662</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03222975957651988</v>
+        <v>0.03778519108138154</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>57</v>
+      </c>
+      <c r="J17" t="n">
+        <v>117</v>
+      </c>
+      <c r="K17" t="n">
+        <v>135.0240378431914</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3841838933.765595</v>
+        <v>3157364288.325015</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1349428146631614</v>
+        <v>0.1640095415043629</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02982046018418502</v>
+        <v>0.03282569619081593</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>31</v>
+      </c>
+      <c r="J18" t="n">
+        <v>116</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1265341600.273058</v>
+        <v>1007448938.975332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1636315860343311</v>
+        <v>0.1324582348467803</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0266228901414134</v>
+        <v>0.02015640931416241</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1984433558.95066</v>
+        <v>1699971118.296536</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1058358687716467</v>
+        <v>0.1292578809103823</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02239427130126403</v>
+        <v>0.02909143902735014</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2072204815.672112</v>
+        <v>1917207723.448742</v>
       </c>
       <c r="F21" t="n">
-        <v>0.072406652346342</v>
+        <v>0.09235117634831348</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03883762500155747</v>
+        <v>0.04478274888169876</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3682140856.712066</v>
+        <v>3260573605.054961</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09280301365569514</v>
+        <v>0.09106034973767828</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05566778667518354</v>
+        <v>0.04096417319178036</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>30</v>
+      </c>
+      <c r="J22" t="n">
+        <v>118</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1354420018.626393</v>
+        <v>1076273273.240672</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1377166372323685</v>
+        <v>0.1676608252646434</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03981706810640356</v>
+        <v>0.03438033445118514</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2848320879.110778</v>
+        <v>3739737760.213049</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1366722940759164</v>
+        <v>0.1499247237771975</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03607379421424355</v>
+        <v>0.03279754083528231</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>35</v>
+      </c>
+      <c r="J24" t="n">
+        <v>118</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1305897295.852744</v>
+        <v>1356399066.905943</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08745907729858657</v>
+        <v>0.09330138785570717</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02743902210827255</v>
+        <v>0.02354500938704761</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>889522447.385366</v>
+        <v>996067467.7511077</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1202357992344308</v>
+        <v>0.1124181264167173</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02632502931209621</v>
+        <v>0.02457239371805474</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3412925803.120446</v>
+        <v>3219252496.598708</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1071557382201103</v>
+        <v>0.1505664750885171</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02471241008227133</v>
+        <v>0.01657400163967558</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>47</v>
+      </c>
+      <c r="J27" t="n">
+        <v>117</v>
+      </c>
+      <c r="K27" t="n">
+        <v>76.81596581077399</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1419,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3698517024.612421</v>
+        <v>3736128394.75637</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1125571431764918</v>
+        <v>0.1160927179336923</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04437212168112945</v>
+        <v>0.04171201158310198</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>117</v>
+      </c>
+      <c r="K28" t="n">
+        <v>122.8483838193273</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4217830844.84229</v>
+        <v>4644771064.830345</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1477887846772093</v>
+        <v>0.103959729566654</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03977199350657146</v>
+        <v>0.03126672759632127</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>109</v>
+      </c>
+      <c r="J29" t="n">
+        <v>118</v>
+      </c>
+      <c r="K29" t="n">
+        <v>179.4016800920013</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1892630189.849734</v>
+        <v>2242027659.92994</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1318092918698433</v>
+        <v>0.1008453036866287</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03403049862025003</v>
+        <v>0.03125525634239913</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1247195712.168157</v>
+        <v>1306722057.281451</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08658995189788772</v>
+        <v>0.09883905619605805</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03268326695688936</v>
+        <v>0.04039543662421267</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1827539258.770536</v>
+        <v>1480679691.982322</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09981039230621225</v>
+        <v>0.1029927626483344</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03113754025376199</v>
+        <v>0.02627399166031321</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2270793713.667144</v>
+        <v>2283443081.428207</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2082780962061486</v>
+        <v>0.170661609846306</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04428662523569141</v>
+        <v>0.05650256916659571</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1023837199.134627</v>
+        <v>1424031485.524931</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1081514734932282</v>
+        <v>0.1149546217464969</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02378537194715311</v>
+        <v>0.02604210891105525</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>896695347.3651798</v>
+        <v>1036517879.811103</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1147872160506689</v>
+        <v>0.1107547898439126</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04198062441211668</v>
+        <v>0.02907831084023324</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2655782442.123362</v>
+        <v>1999952632.666037</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1319230377401809</v>
+        <v>0.1176180093867859</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02011797661910897</v>
+        <v>0.02900062283918815</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2571866566.688723</v>
+        <v>2856228433.333202</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1026839454211487</v>
+        <v>0.09429407545879973</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03618715883108774</v>
+        <v>0.04012782097877441</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1324522856.668334</v>
+        <v>1810381133.344654</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07683399955545787</v>
+        <v>0.08826063472238854</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02801150879090403</v>
+        <v>0.02922145434572559</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2195073937.645976</v>
+        <v>1488424477.864084</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1523159151096602</v>
+        <v>0.1838946141938523</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02821751776449277</v>
+        <v>0.02038406015707908</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1776174311.496197</v>
+        <v>1586527302.708423</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1478218431029669</v>
+        <v>0.1329886662801484</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03811197825548143</v>
+        <v>0.03762756544670795</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2129380985.86719</v>
+        <v>2031418424.162269</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1407465336817526</v>
+        <v>0.1079016624063958</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0284882201468537</v>
+        <v>0.03181923410971572</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2731874100.384755</v>
+        <v>2996723944.061254</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1033065436010469</v>
+        <v>0.1043557954695736</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0414098680286499</v>
+        <v>0.04571307914713454</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>42</v>
+      </c>
+      <c r="J42" t="n">
+        <v>113</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2237300933.505045</v>
+        <v>2951365211.625666</v>
       </c>
       <c r="F43" t="n">
-        <v>0.197083471171653</v>
+        <v>0.1572525804039554</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02474613229406053</v>
+        <v>0.01872531942310495</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2270566098.519476</v>
+        <v>1611563442.256619</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07257722259023149</v>
+        <v>0.07265139722397909</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03087350188889506</v>
+        <v>0.0323995108802809</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2251638088.978343</v>
+        <v>1579916759.258988</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1874254478476912</v>
+        <v>0.1646140437156844</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03532287600081239</v>
+        <v>0.04087253982281877</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5539264846.918118</v>
+        <v>4282205401.132791</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1365554513066251</v>
+        <v>0.1086252210966526</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05330170211611703</v>
+        <v>0.05558227979546222</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>67</v>
+      </c>
+      <c r="J46" t="n">
+        <v>118</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5113849434.357146</v>
+        <v>4599566757.661637</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1716139246680838</v>
+        <v>0.1373695534735706</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04613219471191209</v>
+        <v>0.05161887057709396</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>52</v>
+      </c>
+      <c r="J47" t="n">
+        <v>118</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4494218030.344247</v>
+        <v>3166106725.086271</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08250499846356996</v>
+        <v>0.07008424343702607</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03358279555658236</v>
+        <v>0.03051353587808114</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>45</v>
+      </c>
+      <c r="J48" t="n">
+        <v>116</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1624880351.608013</v>
+        <v>1568319290.078676</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1412095094127193</v>
+        <v>0.153143327115158</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03424610125363951</v>
+        <v>0.02728288523589242</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4044103891.34539</v>
+        <v>3535136257.324641</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1768849950664896</v>
+        <v>0.1340386280861691</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04001308784573895</v>
+        <v>0.04582424207609339</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>41</v>
+      </c>
+      <c r="J50" t="n">
+        <v>117</v>
+      </c>
+      <c r="K50" t="n">
+        <v>110.112760265416</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1093688905.484349</v>
+        <v>1001892147.360744</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1786802742646931</v>
+        <v>0.1910728851058949</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03417098877283614</v>
+        <v>0.05278656558431275</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4453837104.697277</v>
+        <v>4313680861.068107</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1068020049940513</v>
+        <v>0.1335050791360911</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0575857824431187</v>
+        <v>0.03815511694058372</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>92</v>
+      </c>
+      <c r="J52" t="n">
+        <v>118</v>
+      </c>
+      <c r="K52" t="n">
+        <v>156.0812486077326</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2979117017.61606</v>
+        <v>2508898975.436311</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1390901268018626</v>
+        <v>0.1688610593939334</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02639468527525474</v>
+        <v>0.03207173674634291</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>13</v>
+      </c>
+      <c r="J53" t="n">
+        <v>115</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4389185278.480295</v>
+        <v>3724790206.016851</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1358947774936164</v>
+        <v>0.1161966842622517</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04392893697861907</v>
+        <v>0.03769707497761248</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>54</v>
+      </c>
+      <c r="J54" t="n">
+        <v>117</v>
+      </c>
+      <c r="K54" t="n">
+        <v>123.4255973459026</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4507596249.926975</v>
+        <v>3517912295.424505</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2205343613740348</v>
+        <v>0.1720115620748336</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02782717925596572</v>
+        <v>0.03047853975230766</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>54</v>
+      </c>
+      <c r="J55" t="n">
+        <v>117</v>
+      </c>
+      <c r="K55" t="n">
+        <v>100.9294504862806</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1585790649.965562</v>
+        <v>1500788643.622424</v>
       </c>
       <c r="F56" t="n">
-        <v>0.161700650029127</v>
+        <v>0.1519091826979437</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04128773753999752</v>
+        <v>0.0542612288397755</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2998883276.116407</v>
+        <v>2973295018.213223</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1195382728347053</v>
+        <v>0.1735766834382263</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02667112196176222</v>
+        <v>0.01675789423345353</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>46</v>
+      </c>
+      <c r="J57" t="n">
+        <v>116</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1671215094.773375</v>
+        <v>1149478110.099869</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1950917610365538</v>
+        <v>0.1886853646672493</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02930949577064909</v>
+        <v>0.02764757965983801</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4231733688.850413</v>
+        <v>4933689883.349867</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09791467717445927</v>
+        <v>0.08181316904792979</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04345640167447701</v>
+        <v>0.04300633896519304</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>57</v>
+      </c>
+      <c r="J59" t="n">
+        <v>118</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2554290726.595839</v>
+        <v>3517104582.881054</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1426340775232941</v>
+        <v>0.1769881844067886</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02120217600447467</v>
+        <v>0.03156643245685312</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>17</v>
+      </c>
+      <c r="J60" t="n">
+        <v>118</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2880738191.000935</v>
+        <v>3383916686.293811</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1663111175506828</v>
+        <v>0.1170120613421007</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0284279213091319</v>
+        <v>0.03300379027467507</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1631008347.44739</v>
+        <v>1544854098.291711</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1770949250222309</v>
+        <v>0.157203613350873</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03048721139979341</v>
+        <v>0.03975345347407356</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4064779754.758499</v>
+        <v>4447558576.201921</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09651075033779838</v>
+        <v>0.08938166628674307</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0394265138268893</v>
+        <v>0.03099036201244454</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>58</v>
+      </c>
+      <c r="J63" t="n">
+        <v>118</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2691,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3771764103.58012</v>
+        <v>5004556296.161378</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1157917550841819</v>
+        <v>0.1704693018164757</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02783594476476941</v>
+        <v>0.03061607884036332</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>58</v>
+      </c>
+      <c r="J64" t="n">
+        <v>118</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3961138133.347319</v>
+        <v>4439366293.122819</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1366165179679239</v>
+        <v>0.1082893806806888</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02708242453174922</v>
+        <v>0.029655645517645</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>98</v>
+      </c>
+      <c r="J65" t="n">
+        <v>118</v>
+      </c>
+      <c r="K65" t="n">
+        <v>157.1633606182707</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4838298675.972306</v>
+        <v>4145042162.932645</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1116606030214059</v>
+        <v>0.1486367520092779</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03262164841602665</v>
+        <v>0.03400863850151442</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>58</v>
+      </c>
+      <c r="J66" t="n">
+        <v>117</v>
+      </c>
+      <c r="K66" t="n">
+        <v>141.7304630418722</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2800,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2692645485.571659</v>
+        <v>2322049131.364462</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06696604097650713</v>
+        <v>0.09451806466454457</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03749997883641356</v>
+        <v>0.04010609641108901</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5608456353.832154</v>
+        <v>3867637975.573025</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1288006284628913</v>
+        <v>0.1500479609332784</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03316194505884311</v>
+        <v>0.04491738223745379</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>59</v>
+      </c>
+      <c r="J68" t="n">
+        <v>117</v>
+      </c>
+      <c r="K68" t="n">
+        <v>123.7925439689692</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1832008584.464559</v>
+        <v>1896212826.479499</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1683034902489729</v>
+        <v>0.1411182332579054</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03639495580282393</v>
+        <v>0.03632079622999615</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3316474091.416435</v>
+        <v>3019548568.79149</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1030164312638618</v>
+        <v>0.08828296406051891</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0335356954539958</v>
+        <v>0.03667217355847067</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5190686329.224629</v>
+        <v>3774269826.225004</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1675695024740281</v>
+        <v>0.1377363870153093</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02326027247754218</v>
+        <v>0.0239543017367515</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>96</v>
+      </c>
+      <c r="J71" t="n">
+        <v>118</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2087034955.84332</v>
+        <v>1450731070.573189</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06833545902628645</v>
+        <v>0.07168918223965656</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04198437956149232</v>
+        <v>0.03254530568121287</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2370150044.53334</v>
+        <v>3229931816.276511</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1013742983311704</v>
+        <v>0.1075736017377921</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04147016565586362</v>
+        <v>0.03261480413293422</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3047,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2503956451.754799</v>
+        <v>3942702812.099054</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1474158859379127</v>
+        <v>0.1415011524075461</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03355884626159213</v>
+        <v>0.02861584433349448</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>39</v>
+      </c>
+      <c r="J74" t="n">
+        <v>118</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2274510432.632692</v>
+        <v>2165254932.318252</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1566097788331715</v>
+        <v>0.1341405443796903</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0342125314660913</v>
+        <v>0.02283542954982453</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3710772080.036592</v>
+        <v>4865111920.964837</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09366363327997834</v>
+        <v>0.1006760714295635</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03393043562021449</v>
+        <v>0.02174785940692099</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>55</v>
+      </c>
+      <c r="J76" t="n">
+        <v>117</v>
+      </c>
+      <c r="K76" t="n">
+        <v>124.2469302927808</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2297064181.091951</v>
+        <v>1765660681.811047</v>
       </c>
       <c r="F77" t="n">
-        <v>0.144943764979612</v>
+        <v>0.1614421416915011</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02420734196747618</v>
+        <v>0.01971894892018951</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2989734026.586467</v>
+        <v>3572543059.133904</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1041144077918431</v>
+        <v>0.08917780622704495</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03798808157705794</v>
+        <v>0.04910044199596812</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>59</v>
+      </c>
+      <c r="J78" t="n">
+        <v>117</v>
+      </c>
+      <c r="K78" t="n">
+        <v>116.6009516220388</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1926620141.110046</v>
+        <v>1189875595.70098</v>
       </c>
       <c r="F79" t="n">
-        <v>0.110455557853177</v>
+        <v>0.1467376859176475</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03709667557622481</v>
+        <v>0.03405093430823806</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3710530975.547271</v>
+        <v>5269551960.797545</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09333653238716189</v>
+        <v>0.1110698066263548</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03589728829220452</v>
+        <v>0.03276480249109882</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>57</v>
+      </c>
+      <c r="J80" t="n">
+        <v>117</v>
+      </c>
+      <c r="K80" t="n">
+        <v>114.302449813427</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4927021873.767303</v>
+        <v>4535605827.962459</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1139799496197647</v>
+        <v>0.1374712317144886</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02890967050827321</v>
+        <v>0.02422517764153417</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>53</v>
+      </c>
+      <c r="J81" t="n">
+        <v>117</v>
+      </c>
+      <c r="K81" t="n">
+        <v>130.6169510121615</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5558276431.983706</v>
+        <v>4428580741.561125</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1735507850206946</v>
+        <v>0.1908402310433708</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02717012594693801</v>
+        <v>0.02463225094974547</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>81</v>
+      </c>
+      <c r="J82" t="n">
+        <v>118</v>
+      </c>
+      <c r="K82" t="n">
+        <v>161.3890645249685</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2228019421.186541</v>
+        <v>2218335654.684502</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09916879528145196</v>
+        <v>0.1433189986688366</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0310534278510065</v>
+        <v>0.04116478932099445</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2375350585.159382</v>
+        <v>2232019080.154802</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09671507957950247</v>
+        <v>0.08231305944818874</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04102299980255031</v>
+        <v>0.04543366807925069</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3231778341.245028</v>
+        <v>3200064946.668018</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1817994714735633</v>
+        <v>0.1206315597195088</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03936994618376954</v>
+        <v>0.05424568261102857</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2758692267.418715</v>
+        <v>2413501283.084928</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1352521138471877</v>
+        <v>0.1582891502196201</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02760428047304507</v>
+        <v>0.02006374792565226</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1130865012.562395</v>
+        <v>1300705306.424513</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1297718217181049</v>
+        <v>0.1513333273838383</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03844145969389655</v>
+        <v>0.03645337265628933</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3085045923.8295</v>
+        <v>2962354198.219762</v>
       </c>
       <c r="F88" t="n">
-        <v>0.178737572983252</v>
+        <v>0.1373426106878263</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02590608322619151</v>
+        <v>0.03071350590491247</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2157048328.451489</v>
+        <v>2753717125.126999</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09721230738385316</v>
+        <v>0.1516505495603472</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03396793008755029</v>
+        <v>0.03666965764709881</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2014527015.958737</v>
+        <v>2108518005.949718</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08379359750700645</v>
+        <v>0.08745933627194759</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05366127549507765</v>
+        <v>0.05033267439873086</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1375702286.391039</v>
+        <v>1780936998.613751</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1547490523155786</v>
+        <v>0.1582535420683313</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05770777739567946</v>
+        <v>0.0387950475797327</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2190478132.937454</v>
+        <v>2950379856.262146</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1013825304222898</v>
+        <v>0.09685481168431448</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03235014508676426</v>
+        <v>0.04265074989161513</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3177761993.172707</v>
+        <v>4599438503.924363</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1211458041130709</v>
+        <v>0.1348029441668068</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04889416019518277</v>
+        <v>0.05433864157703873</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>54</v>
+      </c>
+      <c r="J93" t="n">
+        <v>117</v>
+      </c>
+      <c r="K93" t="n">
+        <v>141.7265047127169</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2032403711.198046</v>
+        <v>1910686829.935115</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1324456127356263</v>
+        <v>0.1277924096500007</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04015188883484357</v>
+        <v>0.03599097309635751</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2959642597.101293</v>
+        <v>3147013380.438652</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1340123976368057</v>
+        <v>0.1087194454435503</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04689066246139628</v>
+        <v>0.03540192791867127</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2220466539.232</v>
+        <v>1561180539.681857</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08817006770500782</v>
+        <v>0.1303395851500266</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04447695984988011</v>
+        <v>0.04497696668482289</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4301194214.241256</v>
+        <v>5237440545.468796</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1672422032825113</v>
+        <v>0.1237291577402368</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02286959823568496</v>
+        <v>0.02254941397545242</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>56</v>
+      </c>
+      <c r="J97" t="n">
+        <v>118</v>
+      </c>
+      <c r="K97" t="n">
+        <v>149.6070301608249</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3828360608.564632</v>
+        <v>2596176521.2154</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1265517773770878</v>
+        <v>0.09117240646124063</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02260440415353359</v>
+        <v>0.02059355370622486</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>28</v>
+      </c>
+      <c r="J98" t="n">
+        <v>116</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2653302570.255403</v>
+        <v>2331365093.988636</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1433126990973921</v>
+        <v>0.1322866722628743</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0242487451187944</v>
+        <v>0.02202500280881877</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4743341149.873407</v>
+        <v>4065210329.072469</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1273138376590813</v>
+        <v>0.1515198805844623</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01996404932110616</v>
+        <v>0.02635335293991396</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>48</v>
+      </c>
+      <c r="J100" t="n">
+        <v>118</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2845366402.536148</v>
+        <v>2211417749.808073</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1649214522968813</v>
+        <v>0.1791714923404265</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05372252166258556</v>
+        <v>0.05395080864157014</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
